--- a/shared_data/E2F_c5bp_summaryFigure.xlsx
+++ b/shared_data/E2F_c5bp_summaryFigure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\shared_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF9CD5-AA97-4557-A57E-233F6CD504FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6023499B-B973-421E-92E6-6ECE58A7C6AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25050" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>termID</t>
   </si>
@@ -146,12 +146,6 @@
   </si>
   <si>
     <t>GO:1903047</t>
-  </si>
-  <si>
-    <t>DAVID_ALL</t>
-  </si>
-  <si>
-    <t>DAVID_DIRECT</t>
   </si>
   <si>
     <t>termName</t>
@@ -198,6 +192,18 @@
       </rPr>
       <t>not in msigdb, set size derived from Metacore</t>
     </r>
+  </si>
+  <si>
+    <t>Note: iPG pval ties, IPA does not segregate GO:BP</t>
+  </si>
+  <si>
+    <t>DIRECT</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>DAVID</t>
   </si>
 </sst>
 </file>
@@ -579,663 +585,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="3" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
+    <col min="5" max="9" width="9.42578125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1422</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
-        <v>880</v>
+        <v>1422</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
       </c>
       <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
         <v>3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A23" si="0">A3+1</f>
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>880</v>
+      </c>
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1881</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
-        <v>50</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>4</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A5:A24" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1881</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1053</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4</v>
-      </c>
       <c r="I5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>1253</v>
+        <v>1053</v>
       </c>
       <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6</v>
-      </c>
       <c r="I6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1253</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>943</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
         <v>5</v>
-      </c>
-      <c r="F7" s="4">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>273</v>
+        <v>943</v>
       </c>
       <c r="E8" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>273</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3">
-        <v>432</v>
-      </c>
-      <c r="G9" s="4">
-        <v>9</v>
-      </c>
-      <c r="H9" s="4">
-        <v>9</v>
-      </c>
-      <c r="I9" s="4">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3">
+        <v>432</v>
+      </c>
+      <c r="G10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <v>647</v>
-      </c>
-      <c r="E10" s="4">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4">
-        <v>8</v>
-      </c>
       <c r="H10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
-        <v>865</v>
+        <v>647</v>
       </c>
       <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4">
         <v>8</v>
       </c>
-      <c r="F11" s="4">
-        <v>17</v>
-      </c>
-      <c r="G11" s="4">
-        <v>12</v>
-      </c>
       <c r="H11" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>3616</v>
+        <v>865</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>17</v>
       </c>
       <c r="G12" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>2955</v>
+        <v>3616</v>
       </c>
       <c r="G13" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13" s="4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2955</v>
+      </c>
+      <c r="G14" s="4">
         <v>17</v>
       </c>
-      <c r="D14" s="2">
-        <v>563</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4">
-        <v>7</v>
-      </c>
-      <c r="G14" s="4">
-        <v>15</v>
-      </c>
       <c r="H14" s="4">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I14" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
-        <v>217</v>
+        <v>563</v>
+      </c>
+      <c r="E15" s="4">
+        <v>9</v>
       </c>
       <c r="F15" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="4">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H15" s="4">
+        <v>11</v>
       </c>
       <c r="I15" s="4">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2">
-        <v>1226</v>
-      </c>
-      <c r="E16" s="4">
-        <v>10</v>
+        <v>217</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6</v>
       </c>
       <c r="G16" s="4">
-        <v>23</v>
-      </c>
-      <c r="H16" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1226</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2">
-        <v>221</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>30</v>
-      </c>
       <c r="I17" s="4">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2">
-        <v>603</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="F18" s="4">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I18" s="4">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
-        <v>39</v>
+        <v>603</v>
       </c>
       <c r="E19" s="4">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F19" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H19" s="4">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I19" s="4">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I20" s="4">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E21" s="4">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G21" s="4">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H21" s="4">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I21" s="4">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="E22" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H22" s="4">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="I22" s="4">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2">
+        <v>180</v>
+      </c>
+      <c r="E23" s="4">
+        <v>71</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4">
+        <v>71</v>
+      </c>
+      <c r="H23" s="4">
+        <v>104</v>
+      </c>
+      <c r="I23" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>13</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>4</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>30</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>327</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>53</v>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:I23">
+  <conditionalFormatting sqref="E2:I24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
